--- a/biology/Zoologie/Guyanochactas/Guyanochactas.xlsx
+++ b/biology/Zoologie/Guyanochactas/Guyanochactas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guyanochactas est un genre de scorpions de la famille des Chactidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent au Brésil et en Guyane.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (06/08/2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (06/08/2020) :
 Guyanochactas flavus Lourenço &amp; Ythier, 2011
 Guyanochactas gonzalezspongai (Lourenço, 1983)
 Guyanochactas goujei (Vellard, 1932)
@@ -577,7 +593,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le statut de ce genre est discuté, synonyme de Broteochactas pour Soleglad &amp; Fet, il est valide pour Lourenço et Ythier.
 </t>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lourenço, 1998 : Un nouveau genre de scorpion amazonien appartenant à la famille des Chactidae (Chelicerata, Scorpiones). Revue Arachnologique, vol. 12, no 12, p. 129-134.</t>
         </is>
